--- a/source/list.xlsx
+++ b/source/list.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\w\Desktop\Vue\zg-cloudflare-updater\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\w\Desktop\Vue\zg-cloudflare-updater\source\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,12 +19,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>domain</t>
   </si>
   <si>
     <t>projectfinew.xyz</t>
+  </si>
+  <si>
+    <t>magrarom.com</t>
+  </si>
+  <si>
+    <t>projectfinew1.xyz</t>
   </si>
 </sst>
 </file>
@@ -851,7 +857,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
@@ -862,7 +870,7 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
@@ -872,7 +880,7 @@
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
